--- a/data/matriciona_key.xlsx
+++ b/data/matriciona_key.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
   <si>
     <t>economics and econometrics - innovation</t>
   </si>
@@ -1398,6 +1398,12 @@
   </si>
   <si>
     <t>doc2vec_tri_dbow_500</t>
+  </si>
+  <si>
+    <t>sbert</t>
+  </si>
+  <si>
+    <t>Universal_sent_enc</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PT28"/>
+  <dimension ref="A1:PT30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18586,7 +18592,7 @@
         <v>0.708</v>
       </c>
       <c r="NH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="NI13" t="n">
         <v>0.593</v>
@@ -22123,7 +22129,7 @@
         <v>0.036</v>
       </c>
       <c r="IG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="IH16" t="n">
         <v>0.17</v>
@@ -26359,7 +26365,7 @@
         <v>0.083</v>
       </c>
       <c r="ME19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="MF19" t="n">
         <v>0.207</v>
@@ -26745,7 +26751,7 @@
         <v>-0.034</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
         <v>0.06900000000000001</v>
@@ -27720,7 +27726,7 @@
         <v>-0.025</v>
       </c>
       <c r="MV20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="MW20" t="n">
         <v>-0.062</v>
@@ -28913,7 +28919,7 @@
         <v>-0.012</v>
       </c>
       <c r="LI21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="LJ21" t="n">
         <v>0.07000000000000001</v>
@@ -29758,7 +29764,7 @@
         <v>0.01</v>
       </c>
       <c r="FJ22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK22" t="n">
         <v>0.08799999999999999</v>
@@ -30286,7 +30292,7 @@
         <v>0.043</v>
       </c>
       <c r="MD22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ME22" t="n">
         <v>-0.06900000000000001</v>
@@ -30870,7 +30876,7 @@
         <v>0.024</v>
       </c>
       <c r="CV23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW23" t="n">
         <v>0.002</v>
@@ -31946,7 +31952,7 @@
         <v>-0.047</v>
       </c>
       <c r="V24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0.011</v>
@@ -32843,7 +32849,7 @@
         <v>-0.008</v>
       </c>
       <c r="LI24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="LJ24" t="n">
         <v>0.07000000000000001</v>
@@ -33241,7 +33247,7 @@
         <v>0.007</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0.033</v>
@@ -34057,7 +34063,7 @@
         <v>0.03</v>
       </c>
       <c r="KC25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="KD25" t="n">
         <v>-0.012</v>
@@ -34378,7 +34384,7 @@
         <v>0.059</v>
       </c>
       <c r="OF25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="OG25" t="n">
         <v>-0.022</v>
@@ -34548,7 +34554,7 @@
         <v>-0.094</v>
       </c>
       <c r="P26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0.309</v>
@@ -38429,6 +38435,2626 @@
       </c>
       <c r="PT28" t="n">
         <v>-0.409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:436">
+      <c r="A29" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="CL29" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="CM29" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="CP29" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="CQ29" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="CR29" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="CS29" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="CT29" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="CY29" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="CZ29" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="DA29" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="DB29" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="DJ29" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="DK29" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="DL29" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="DM29" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="DN29" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="DO29" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="DP29" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="DQ29" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="DR29" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="DS29" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="DT29" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="DU29" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="DV29" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="DW29" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="DX29" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="DY29" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="DZ29" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="EA29" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="EB29" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="EC29" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="ED29" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="EE29" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="EF29" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="EG29" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="EH29" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="EI29" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="EJ29" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="EK29" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="EL29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EM29" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="EN29" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="EO29" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="EP29" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="EQ29" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="ER29" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="ES29" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="ET29" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="EU29" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="EV29" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="EW29" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="EX29" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="EY29" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="EZ29" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="FA29" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="FB29" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="FC29" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="FD29" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="FE29" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="FF29" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="FG29" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="FH29" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="FI29" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="FJ29" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="FK29" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="FL29" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="FM29" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="FN29" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="FO29" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="FP29" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="FQ29" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="FR29" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="FS29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="FT29" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="FU29" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="FV29" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="FW29" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="FX29" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="FY29" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="FZ29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="GA29" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="GB29" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="GC29" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="GD29" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="GE29" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="GF29" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="GG29" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="GH29" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="GI29" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="GJ29" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="GK29" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="GL29" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="GM29" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="GN29" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="GO29" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="GP29" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="GQ29" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="GR29" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="GS29" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="GT29" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="GU29" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="GV29" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="GW29" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="GX29" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="GY29" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="GZ29" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="HA29" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="HB29" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="HC29" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="HD29" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="HE29" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="HF29" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="HG29" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="HH29" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="HI29" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="HJ29" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="HK29" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="HL29" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="HM29" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="HN29" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="HO29" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="HP29" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="HQ29" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="HR29" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="HS29" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="HT29" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="HU29" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="HV29" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="HX29" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="HZ29" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="IA29" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="IB29" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="IC29" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="ID29" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="IE29" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="IF29" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="IG29" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="IH29" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="II29" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="IJ29" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="IK29" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="IL29" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="IM29" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="IN29" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="IO29" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="IP29" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="IQ29" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="IS29" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="IT29" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="IU29" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="IV29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="IW29" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="IX29" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="IY29" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="IZ29" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="JA29" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="JB29" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="JC29" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="JD29" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="JE29" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="JF29" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="JG29" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="JH29" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="JI29" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="JJ29" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="JK29" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="JL29" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="JM29" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="JN29" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="JO29" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="JP29" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="JR29" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="JS29" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="JT29" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="JU29" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="JV29" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="JW29" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="JX29" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="JY29" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="JZ29" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="KA29" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="KB29" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="KC29" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="KD29" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="KE29" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="KF29" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="KG29" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="KH29" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="KI29" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="KJ29" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="KK29" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="KL29" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="KM29" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="KN29" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="KO29" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="KP29" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="KQ29" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="KR29" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="KS29" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="KT29" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="KU29" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="KV29" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="KW29" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="KX29" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="KY29" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="KZ29" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="LA29" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="LB29" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="LC29" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="LD29" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="LE29" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="LF29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="LG29" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="LH29" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="LI29" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="LJ29" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="LK29" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="LL29" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="LM29" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="LN29" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="LO29" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="LP29" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="LQ29" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="LR29" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="LS29" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="LT29" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="LU29" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="LV29" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="LW29" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="LX29" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="LY29" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="LZ29" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="MA29" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="MB29" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="MC29" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="MD29" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="ME29" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="MF29" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="MG29" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="MH29" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="MI29" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="MJ29" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="MK29" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="ML29" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="MM29" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="MN29" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="MO29" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="MP29" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="MQ29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="MR29" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="MS29" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="MT29" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="MU29" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="MV29" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="MW29" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="MX29" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="MY29" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="MZ29" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="NA29" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="NB29" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="NC29" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="ND29" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="NE29" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="NF29" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="NG29" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="NH29" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="NI29" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="NJ29" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="NK29" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="NL29" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="NM29" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="NN29" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="NO29" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="NP29" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="NQ29" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="NR29" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="NS29" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="NT29" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="NU29" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="NV29" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="NW29" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="NX29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="NY29" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="NZ29" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="OA29" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="OB29" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="OC29" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="OD29" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="OE29" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="OF29" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="OG29" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="OH29" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="OI29" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="OJ29" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="OK29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="OL29" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="OM29" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="ON29" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="OO29" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="OP29" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="OQ29" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="OR29" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="OS29" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="OT29" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="OU29" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="OV29" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="OW29" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="OX29" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="OY29" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="OZ29" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="PA29" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="PB29" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="PC29" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="PD29" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="PE29" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="PF29" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="PG29" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="PH29" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="PI29" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="PJ29" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="PK29" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="PL29" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="PM29" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="PN29" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="PO29" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="PP29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="PQ29" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="PR29" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="PS29" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="PT29" t="n">
+        <v>0.336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:436">
+      <c r="A30" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="CK30" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="CL30" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="CM30" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="CN30" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="CO30" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="CP30" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="CQ30" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="CR30" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="CS30" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="CT30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="CU30" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="CV30" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="CW30" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="CX30" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="CY30" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="CZ30" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="DA30" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="DB30" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="DC30" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="DD30" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="DE30" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="DF30" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="DG30" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="DH30" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="DI30" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="DJ30" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="DK30" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="DL30" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="DM30" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="DN30" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="DO30" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="DP30" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="DQ30" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="DR30" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="DS30" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="DT30" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="DU30" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="DV30" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="DW30" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="DX30" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="DY30" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="DZ30" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="EA30" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="EB30" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="EC30" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="ED30" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="EE30" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="EF30" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="EG30" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="EH30" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="EI30" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EJ30" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="EK30" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="EL30" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="EM30" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="EN30" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EO30" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="EP30" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="EQ30" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="ER30" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="ES30" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="ET30" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="EU30" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="EV30" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="EW30" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="EX30" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="EY30" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="EZ30" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="FA30" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="FB30" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="FC30" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="FD30" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="FE30" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="FF30" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="FG30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="FH30" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="FI30" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="FJ30" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="FK30" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="FL30" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="FM30" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="FN30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="FO30" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="FP30" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="FQ30" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="FR30" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="FS30" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="FT30" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="FU30" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="FV30" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="FW30" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="FX30" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="FY30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="FZ30" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="GA30" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="GB30" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="GC30" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="GD30" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GE30" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="GF30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="GG30" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="GH30" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="GI30" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="GJ30" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="GK30" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="GL30" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="GM30" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="GN30" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="GO30" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="GP30" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="GQ30" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="GR30" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="GS30" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="GT30" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="GU30" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="GV30" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="GW30" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="GX30" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="GY30" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="GZ30" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="HA30" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="HB30" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="HC30" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="HD30" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="HE30" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="HF30" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="HG30" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="HH30" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="HI30" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="HJ30" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="HK30" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="HL30" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="HM30" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="HN30" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="HO30" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="HP30" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="HQ30" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="HR30" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="HS30" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="HT30" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="HU30" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="HV30" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="HX30" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="HZ30" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="IA30" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="IB30" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="IC30" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="ID30" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="IE30" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="IF30" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="IG30" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="IH30" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="II30" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="IJ30" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="IK30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="IL30" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="IM30" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="IN30" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="IO30" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="IP30" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="IQ30" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="IR30" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="IS30" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="IT30" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="IU30" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="IV30" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="IW30" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="IX30" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="IY30" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="IZ30" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="JA30" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="JB30" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="JC30" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="JD30" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="JE30" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="JF30" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="JG30" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="JH30" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="JI30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="JJ30" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="JK30" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="JL30" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="JM30" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="JN30" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="JO30" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="JP30" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="JR30" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="JS30" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="JT30" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="JU30" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="JV30" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="JW30" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="JX30" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="JY30" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="JZ30" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="KA30" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="KB30" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="KC30" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="KD30" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="KE30" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="KF30" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="KG30" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="KH30" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="KI30" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="KJ30" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="KK30" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="KL30" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="KM30" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="KN30" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="KO30" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="KP30" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="KQ30" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="KR30" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="KT30" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="KU30" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="KV30" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="KW30" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="KX30" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="KZ30" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="LA30" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="LB30" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="LC30" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="LD30" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="LE30" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="LF30" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="LG30" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="LH30" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="LI30" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="LJ30" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="LK30" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="LL30" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="LM30" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="LN30" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="LO30" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="LP30" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="LQ30" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="LR30" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="LS30" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="LT30" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="LU30" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="LV30" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="LW30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="LX30" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="LY30" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="LZ30" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="MA30" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="MB30" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="MC30" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="MD30" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="ME30" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="MF30" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="MG30" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="MH30" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="MI30" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="MJ30" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="MK30" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="ML30" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="MM30" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="MN30" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="MO30" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="MP30" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="MQ30" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="MR30" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="MS30" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="MT30" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="MU30" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="MV30" t="n">
+        <v>-0.066</v>
+      </c>
+      <c r="MW30" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="MX30" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="MY30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="MZ30" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="NA30" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="NB30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="NC30" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="ND30" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="NE30" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="NF30" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="NG30" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="NH30" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="NI30" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="NJ30" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="NK30" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="NL30" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="NM30" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="NN30" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="NO30" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="NP30" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="NQ30" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="NR30" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="NS30" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="NT30" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="NU30" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="NV30" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="NW30" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="NX30" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="NY30" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="NZ30" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="OA30" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="OB30" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="OC30" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="OD30" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="OE30" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="OF30" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="OG30" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="OH30" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="OI30" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="OJ30" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="OK30" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="OL30" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="OM30" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="ON30" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="OO30" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="OP30" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="OQ30" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="OR30" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="OS30" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="OT30" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="OU30" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="OV30" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="OW30" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="OX30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="OY30" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="OZ30" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="PA30" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="PB30" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="PC30" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="PD30" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="PE30" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="PF30" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="PG30" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="PH30" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="PI30" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="PJ30" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="PK30" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="PL30" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="PM30" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="PN30" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="PO30" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="PP30" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="PQ30" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="PR30" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="PS30" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="PT30" t="n">
+        <v>0.061</v>
       </c>
     </row>
   </sheetData>
